--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C7CBD-E415-431C-B21A-288FEA26DF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B014088B-1ECF-4373-B83A-D4F8D9D8140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="480" windowWidth="28770" windowHeight="15450" tabRatio="1000" activeTab="5" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="3" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -5643,7 +5643,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,7 +6038,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,9 +6571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7051,8 +7051,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:F9"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7455,7 +7455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B014088B-1ECF-4373-B83A-D4F8D9D8140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB413BE-7E07-44ED-A2EC-728185DAC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="3" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="149">
   <si>
     <t>UI</t>
   </si>
@@ -6036,9 +6036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,9 +6331,7 @@
       <c r="C8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
         <v>60</v>
       </c>
@@ -6365,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>95</v>
       </c>
@@ -6563,7 +6561,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6571,9 +6570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7051,8 +7050,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7456,8 +7455,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB413BE-7E07-44ED-A2EC-728185DAC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B904D5-32EB-4CA8-AF22-218A0F50F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="150">
   <si>
     <t>UI</t>
   </si>
@@ -4135,51 +4135,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">status= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'fulfilled' 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfilled_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="Aptos Narrow"/>
@@ -4701,6 +4656,76 @@
         <scheme val="minor"/>
       </rPr>
       <t>='scheduled'</t>
+    </r>
+  </si>
+  <si>
+    <t>physical_gift_redemption.tracking_number set</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">status= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'fulfilled' 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fulfilled_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activation_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set</t>
     </r>
   </si>
 </sst>
@@ -5214,7 +5239,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,7 +6063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,7 +6333,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>47</v>
@@ -6509,7 +6534,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>20</v>
@@ -6572,7 +6597,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6842,7 +6867,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>47</v>
@@ -7019,14 +7044,16 @@
       <c r="O11" s="6"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -7051,7 +7078,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7314,7 +7341,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -7380,7 +7407,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>8</v>
@@ -7415,13 +7442,13 @@
         <v>47</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>8</v>
@@ -7456,7 +7483,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,13 +7554,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>47</v>
@@ -7648,7 +7675,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>47</v>
@@ -7719,7 +7746,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -7744,7 +7771,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -7773,7 +7800,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>47</v>
@@ -7785,7 +7812,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>13</v>
@@ -7814,7 +7841,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>47</v>
@@ -7826,7 +7853,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>8</v>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B904D5-32EB-4CA8-AF22-218A0F50F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055871B8-3E7E-4DC6-A8F5-47957582D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -74,56 +74,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jorge Naupari</author>
-  </authors>
-  <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{F8A3A329-01A8-4075-B366-7C531E3F6458}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jorge Naupari:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-  3. Payment Validation Rules (Q3.2)
-  Why valuable: Rewards.md doesn't specify validation
-  What to extract:
-  ### Payment Info Validation
-  **Venmo:**
-  - Format 1: @handle (starts with @, 3-30 chars, alphanumeric + underscore)
-  - Format 2: Phone (xxx-xxx-xxxx, US format)
-  - Validation: Regex only (no Venmo API verification for MVP)
-  **PayPal:**
-  - Format: email@example.com
-  - Validation: Email regex only (no PayPal API verification for MVP)
-  **Double-Entry:**
-  - User enters info twice
-  - System validates both entries match exactly
-  - Error if mismatch: "Payment accounts don't match. Please try again."</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="155">
   <si>
     <t>UI</t>
   </si>
@@ -350,51 +302,6 @@
     <t>User claims reward</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Your gift is on the way
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Your gift is on the way</t>
-    </r>
-  </si>
-  <si>
     <t>automatic</t>
   </si>
   <si>
@@ -462,9 +369,6 @@
   </si>
   <si>
     <t>'completed'</t>
-  </si>
-  <si>
-    <t>Reward delivered to user</t>
   </si>
   <si>
     <t>User completed mission</t>
@@ -523,29 +427,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mission_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='raffle'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reward_id</t>
+      <t>enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=true </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cron trigger)</t>
     </r>
     <r>
       <rPr>
@@ -567,7 +470,362 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>raffle_end_date</t>
+      <t>activated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=false / true </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>='dormant'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>='active'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='completed'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed_at</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>='completed'</t>
+    </r>
+  </si>
+  <si>
+    <t>redemptions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Winners: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='claimable'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Losers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='rejected'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rejection_reason</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Winners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_winner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=TRUE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Losers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_winner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=FALSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>winner_selected_at</t>
     </r>
     <r>
       <rPr>
@@ -589,128 +847,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">raffle_prize_name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>activated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=false
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=true</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=true </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(cron trigger)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>activated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=false / true </t>
-    </r>
+      <t>selected_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set</t>
+    </r>
+  </si>
+  <si>
+    <t>Winner claims</t>
   </si>
   <si>
     <r>
@@ -732,151 +883,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>='dormant'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>activated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=false</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>activated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=true</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>='active'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='completed'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>completed_at</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 'claimable'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mission_progress_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">='claimed'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>claimed_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -894,145 +927,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>='completed'</t>
-    </r>
-  </si>
-  <si>
-    <t>redemptions</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Winners: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='claimable'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Losers:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='rejected'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rejection_reason</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Winners</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>is_winner</t>
     </r>
     <r>
@@ -1043,284 +937,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">=TRUE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Losers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_winner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=FALSE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>winner_selected_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>selected_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set</t>
-    </r>
-  </si>
-  <si>
-    <t>Winner claims</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='claimed'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>claimed_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_winner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>=TRUE</t>
     </r>
-  </si>
-  <si>
-    <t>Admin fulfills</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='fulfilled'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfilled_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfilled_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='concluded'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluded_at</t>
-    </r>
-  </si>
-  <si>
-    <t>Admin creates standard mission</t>
   </si>
   <si>
     <t>Mission dormant</t>
@@ -1343,9 +961,6 @@
     <t xml:space="preserve">	User claims reward</t>
   </si>
   <si>
-    <t xml:space="preserve">	Admin fulfills (if needed)</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Reward complete</t>
   </si>
   <si>
@@ -2598,162 +2213,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='fulfilled'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfilled_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfilled_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fulfillment_notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tracking_number </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>carrier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">shipped_at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">delivered_at </t>
     </r>
     <r>
@@ -4104,43 +3563,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">value_data.coupon_code activated
-value_data.percent
-value_data.duration_minutes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Value Data = JSONB (sub dataset per reward type)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>value_data.duration_minutes</t>
     </r>
     <r>
@@ -4226,9 +3648,6 @@
     <t>Admin creates mission with instant reward</t>
   </si>
   <si>
-    <t>Admin fulfills (if needed)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4393,98 +3812,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">status= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'fulfilled' 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fulfilled_by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-fulfillment_notes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-fulfilled_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set</t>
-    </r>
-  </si>
-  <si>
-    <t>Read Note for UI elements</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="8"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -4659,9 +3986,6 @@
     </r>
   </si>
   <si>
-    <t>physical_gift_redemption.tracking_number set</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4726,6 +4050,525 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stage 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Default Schedule</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stage 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Scheduled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pending Payment Info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clearing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='claimed'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fulfilled_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fulfilled_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fulfillment_notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shipped_at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default Claim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redeeming Physical</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sending</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default Schedule</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scheduled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stage 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stage 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concluded - history</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redeeming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concluded - history</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stage 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concluded - history</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  else if (reward.type === 'discount') {
+    if (redemption.activation_date === null) status = 'scheduled';
+    else if (NOW() &lt;= redemption.expiration_date) status = 'active';</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: In Progress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI = CARD STATE: In Progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Varies by Reward type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mission_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='raffle'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reward_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raffle_end_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=true</t>
     </r>
   </si>
 </sst>
@@ -4857,7 +4700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4899,6 +4742,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5235,11 +5084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69F2FBC-5206-4512-A557-61D9DB1505F7}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,22 +5111,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
@@ -5287,16 +5136,16 @@
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>7</v>
@@ -5307,22 +5156,22 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>8</v>
@@ -5331,16 +5180,16 @@
         <v>3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
@@ -5349,27 +5198,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="11"/>
       <c r="L3" s="2"/>
@@ -5378,63 +5227,63 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>8</v>
@@ -5446,215 +5295,145 @@
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="K12" s="8"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="K10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,393 +5443,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F7ED4-7447-449E-83ED-D976E5F0C78E}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="59.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="62.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="86.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="59.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="59.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="H1" s="3"/>
-      <c r="J1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="1"/>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>85</v>
+      <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>75</v>
+      <c r="B7" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="J12" s="8"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,1017 +5647,748 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="59.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="62.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="86.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="59.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" s="3"/>
-      <c r="L1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>3</v>
+      <c r="H8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="1"/>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="G10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="B13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="59.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="62.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="86.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="59.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="86.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="L1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>0</v>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7077,20 +6397,21 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="59.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="62.5703125" style="1" customWidth="1"/>
     <col min="13" max="14" width="14.140625" style="1" customWidth="1"/>
@@ -7101,41 +6422,41 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>0</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>7</v>
@@ -7146,40 +6467,40 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>117</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
@@ -7190,160 +6511,158 @@
     </row>
     <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -7351,81 +6670,81 @@
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>8</v>
@@ -7433,37 +6752,37 @@
     </row>
     <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>6</v>
@@ -7479,23 +6798,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="59.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="62.5703125" style="1" customWidth="1"/>
     <col min="13" max="14" width="14.140625" style="1" customWidth="1"/>
@@ -7506,41 +6826,41 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>0</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>7</v>
@@ -7551,40 +6871,38 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>128</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>117</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
@@ -7595,160 +6913,158 @@
     </row>
     <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -7756,124 +7072,83 @@
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>139</v>
+      <c r="B9" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055871B8-3E7E-4DC6-A8F5-47957582D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546B8C46-6344-49EA-91AC-19151E755A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>Jorge Naupari</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{66125775-3CF0-41B7-8ADE-E07C2550405D}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{66125775-3CF0-41B7-8ADE-E07C2550405D}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="158">
   <si>
     <t>UI</t>
   </si>
@@ -194,51 +194,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = Green Button to participate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Your gift is on the way
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Claim your gift!</t>
     </r>
   </si>
   <si>
@@ -4570,6 +4525,18 @@
       </rPr>
       <t>=true</t>
     </r>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Dormant</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Raffle Available</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Raffle Processing</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Raffle Claim</t>
   </si>
 </sst>
 </file>
@@ -5088,19 +5055,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="59.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="62.5703125" style="1" customWidth="1"/>
     <col min="13" max="14" width="14.140625" style="1" customWidth="1"/>
@@ -5111,44 +5079,44 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>0</v>
@@ -5156,43 +5124,41 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -5200,239 +5166,239 @@
     </row>
     <row r="3" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>45</v>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
+      <c r="G6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>56</v>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="9"/>
       <c r="K10" s="8"/>
     </row>
   </sheetData>
@@ -5465,7 +5431,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -5474,155 +5440,155 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,7 +5638,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -5681,347 +5647,347 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6024,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -6067,22 +6033,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3"/>
       <c r="L1" s="3" t="s">
@@ -6091,31 +6057,31 @@
     </row>
     <row r="2" spans="1:12" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>3</v>
@@ -6123,247 +6089,247 @@
     </row>
     <row r="3" spans="1:12" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6422,7 +6388,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -6431,35 +6397,35 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>0</v>
@@ -6467,43 +6433,43 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -6511,26 +6477,26 @@
     </row>
     <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="6"/>
@@ -6538,65 +6504,65 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="6"/>
@@ -6604,64 +6570,64 @@
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
@@ -6670,125 +6636,125 @@
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6826,7 +6792,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -6835,35 +6801,35 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>0</v>
@@ -6871,41 +6837,41 @@
     </row>
     <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -6913,26 +6879,26 @@
     </row>
     <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="6"/>
@@ -6940,65 +6906,65 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="6"/>
@@ -7006,64 +6972,64 @@
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
@@ -7072,84 +7038,84 @@
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546B8C46-6344-49EA-91AC-19151E755A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D003F4-4ABA-4D65-B732-031ED780956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="3" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -4667,7 +4667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4711,9 +4711,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4732,6 +4729,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3067467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1581360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD21F56-1902-711F-E037-8AABF377AAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="1028700"/>
+          <a:ext cx="2991267" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3181767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1705185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FABFFA-E0E1-421B-935B-2E7E012E2904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="2867025"/>
+          <a:ext cx="2991267" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3210328</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1695663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60112CF8-306B-1FEE-89B3-2D967DB85E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="4743450"/>
+          <a:ext cx="2886478" cy="1524213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2934109</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1609950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAF0721-9C8B-7EE9-BDD8-288C371330C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16011525" y="4572000"/>
+          <a:ext cx="2934109" cy="1609950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5053,9 +5231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69F2FBC-5206-4512-A557-61D9DB1505F7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,7 +6000,7 @@
       <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -6000,9 +6178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="A9:E9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,7 +6452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -6355,6 +6533,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6688,7 +6867,7 @@
       <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>150</v>
       </c>
       <c r="F9" s="12" t="s">

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D003F4-4ABA-4D65-B732-031ED780956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A748C91-20DD-448E-AE3F-24054FA9E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="3" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -4732,6 +4732,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2695938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1324161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3AB79B-2ED6-94CC-4C0F-35B8C393A7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14163675" y="180975"/>
+          <a:ext cx="2600688" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5794,9 +5843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,7 +6020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +6045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
@@ -6171,6 +6220,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6178,7 +6228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A748C91-20DD-448E-AE3F-24054FA9E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711E973-0A40-4C92-BF34-A119D2F35E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="159">
   <si>
     <t>UI</t>
   </si>
@@ -4537,6 +4537,9 @@
   </si>
   <si>
     <t>UI = CARD STATE: Raffle Claim</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Mission Completed</t>
   </si>
 </sst>
 </file>
@@ -4743,7 +4746,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2695938</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1324161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4769,6 +4772,94 @@
         <a:xfrm>
           <a:off x="14163675" y="180975"/>
           <a:ext cx="2600688" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438621</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B58E91-5BF8-ECC9-EC0A-E3BA24E275CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="1619250"/>
+          <a:ext cx="3372321" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>343373</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541A644E-E6F1-0157-3CD9-643545C6B4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19773900" y="1590675"/>
+          <a:ext cx="3391373" cy="1571844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,7 +5373,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,7 +5731,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5777,7 +5868,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>66</v>
@@ -5836,6 +5927,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5844,15 +5936,15 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" hidden="1" customWidth="1"/>
@@ -5893,7 +5985,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5920,7 +6012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -5945,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -5970,7 +6062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -5995,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711E973-0A40-4C92-BF34-A119D2F35E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6064A-B32A-4F14-86EC-79877978C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="165">
   <si>
     <t>UI</t>
   </si>
@@ -4540,6 +4540,171 @@
   </si>
   <si>
     <t>UI = CARD STATE: Mission Completed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='claimable'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>claimed_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set</t>
+    </r>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Winner</t>
+  </si>
+  <si>
+    <t>UI = CARD STATE: Loser</t>
+  </si>
+  <si>
+    <t>Losers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='rejected'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rejection_reason</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_winner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=FALSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>winner_selected_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selected_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5372,8 +5537,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -5509,7 +5674,7 @@
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -5550,7 +5715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -5579,7 +5744,7 @@
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -5620,7 +5785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -5661,11 +5826,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>59</v>
       </c>
@@ -5676,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>61</v>
@@ -5700,14 +5867,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -5721,7 +5903,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5731,7 +5914,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A1:XFD7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,8 +6119,8 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6322,7 +6505,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -6407,7 +6590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -6432,7 +6615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -6459,7 +6642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -6484,7 +6667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -6684,8 +6867,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,6 +7263,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7089,7 +7273,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,5 +7625,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6064A-B32A-4F14-86EC-79877978C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EDF9D-FDB0-4CFB-944F-0351CCCE3A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -6120,7 +6120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EDF9D-FDB0-4CFB-944F-0351CCCE3A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE08D995-F8A3-445E-B412-27D580EC41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -4903,6 +4903,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3800980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1590881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8444A81B-AE23-7C94-890E-B1AB6215DBF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973175" y="495300"/>
+          <a:ext cx="3620005" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5036,7 +5085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5536,9 +5585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69F2FBC-5206-4512-A557-61D9DB1505F7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5715,7 +5764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -5744,7 +5793,7 @@
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -5785,7 +5834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -5826,7 +5875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -5904,7 +5953,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6118,9 +6168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6615,7 +6665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE08D995-F8A3-445E-B412-27D580EC41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8A63E-B74E-4008-8D76-DD87F532DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
@@ -4937,6 +4937,50 @@
         <a:xfrm>
           <a:off x="13973175" y="495300"/>
           <a:ext cx="3620005" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3639033</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1819524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CEB5AE-FB18-40EE-0458-ABC06E084535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973175" y="2190750"/>
+          <a:ext cx="3458058" cy="1781424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5587,7 +5631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,7 +5767,7 @@
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -5793,7 +5837,7 @@
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8A63E-B74E-4008-8D76-DD87F532DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0483E11-4427-43A4-99BE-F3EE47A5C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -2301,95 +2301,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">='claimed'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">claimed_at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scheduled_activation_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> set
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scheduled_activation_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>='18:00:00' (6 PM EST)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">value_data.duration_days
 </t>
     </r>
@@ -4704,6 +4615,95 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='claimed'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">claimed_at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scheduled_activation_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scheduled_activation_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>='19:00:00' (2 PM EST)</t>
     </r>
   </si>
 </sst>
@@ -4904,15 +4904,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3800980</xdr:colOff>
+      <xdr:colOff>2943226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1590881</xdr:rowOff>
+      <xdr:rowOff>1261812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4935,8 +4935,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13973175" y="495300"/>
-          <a:ext cx="3620005" cy="1476581"/>
+          <a:off x="13992226" y="2057400"/>
+          <a:ext cx="2743200" cy="1118937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4948,15 +4948,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3639033</xdr:colOff>
+      <xdr:colOff>2562225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1819524</xdr:rowOff>
+      <xdr:rowOff>1265382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4979,8 +4979,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13973175" y="2190750"/>
-          <a:ext cx="3458058" cy="1781424"/>
+          <a:off x="13935075" y="3705225"/>
+          <a:ext cx="2419350" cy="1246332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3781898</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1400352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD83D120-D1B4-175E-24A5-356B37E56360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14182725" y="514350"/>
+          <a:ext cx="3391373" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2345334</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7FA97D-30D0-DBDE-F457-F9C65F0F5926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106526" y="7648575"/>
+          <a:ext cx="2031008" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3143713</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1476567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE8FC7D-93FF-8F48-9606-EC505FA99DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14100810" y="6219824"/>
+          <a:ext cx="2835103" cy="1181293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5004,7 +5136,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2695938</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1324161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5040,14 +5172,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438621</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3677121</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9732</xdr:rowOff>
     </xdr:to>
@@ -5072,7 +5204,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18164175" y="1619250"/>
+          <a:off x="12439650" y="5715000"/>
           <a:ext cx="3372321" cy="1486107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5629,9 +5761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69F2FBC-5206-4512-A557-61D9DB1505F7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5698,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5707,7 +5839,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>44</v>
@@ -5740,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -5767,12 +5899,12 @@
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>40</v>
@@ -5808,12 +5940,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
@@ -5837,12 +5969,12 @@
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>32</v>
@@ -5883,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>45</v>
@@ -5919,12 +6051,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>59</v>
@@ -5936,7 +6068,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>61</v>
@@ -5960,25 +6092,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>11</v>
@@ -6099,7 +6231,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>63</v>
@@ -6122,7 +6254,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>65</v>
@@ -6145,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>66</v>
@@ -6168,7 +6300,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>67</v>
@@ -6212,9 +6344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6262,7 +6394,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -6271,10 +6403,10 @@
         <v>94</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>44</v>
@@ -6289,7 +6421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -6314,7 +6446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -6339,7 +6471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -6364,7 +6496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -6389,12 +6521,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>82</v>
@@ -6405,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>44</v>
@@ -6419,7 +6551,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>96</v>
@@ -6432,7 +6564,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>104</v>
@@ -6446,7 +6578,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>97</v>
@@ -6455,7 +6587,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>55</v>
@@ -6464,7 +6596,7 @@
         <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>11</v>
@@ -6475,7 +6607,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>98</v>
@@ -6484,7 +6616,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>55</v>
@@ -6493,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
@@ -6504,7 +6636,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>99</v>
@@ -6522,7 +6654,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>11</v>
@@ -6533,7 +6665,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>100</v>
@@ -6548,10 +6680,10 @@
         <v>55</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>11</v>
@@ -6562,7 +6694,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>101</v>
@@ -6663,10 +6795,10 @@
         <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>44</v>
@@ -6793,7 +6925,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>82</v>
@@ -6804,7 +6936,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>44</v>
@@ -6818,7 +6950,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>88</v>
@@ -6847,7 +6979,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>89</v>
@@ -6876,7 +7008,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>92</v>
@@ -6891,10 +7023,10 @@
         <v>55</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>7</v>
@@ -6905,7 +7037,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>68</v>
@@ -7037,13 +7169,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>44</v>
@@ -7210,7 +7342,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>82</v>
@@ -7225,7 +7357,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
@@ -7237,10 +7369,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>44</v>
@@ -7252,7 +7384,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>11</v>
@@ -7278,22 +7410,22 @@
         <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>11</v>
@@ -7319,22 +7451,22 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>11</v>
@@ -7440,13 +7572,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>44</v>
@@ -7557,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>44</v>
@@ -7613,7 +7745,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>82</v>
@@ -7628,7 +7760,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="11"/>
       <c r="M7" s="6"/>
@@ -7640,7 +7772,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>10</v>
@@ -7655,7 +7787,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>11</v>
@@ -7681,10 +7813,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>44</v>
@@ -7696,7 +7828,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>7</v>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0483E11-4427-43A4-99BE-F3EE47A5C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918E44B-B3EB-439B-88BF-0D148A58AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="5" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -6344,9 +6344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED923DA8-A6DE-4F8B-82AF-4BD2B1222232}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,9 +7497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="M3" s="6"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +7701,7 @@
       <c r="M5" s="6"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>

--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918E44B-B3EB-439B-88BF-0D148A58AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DF9F7-615E-4ACA-9D3F-124BF774F375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="5" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="6" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Reward- PhysicalGift" sheetId="16" r:id="rId4"/>
     <sheet name="Reward- Discount" sheetId="20" r:id="rId5"/>
     <sheet name="Reward- Instant Rewards" sheetId="21" r:id="rId6"/>
+    <sheet name="Locked Mission" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="165">
   <si>
     <t>UI</t>
   </si>
@@ -5439,6 +5440,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3762864</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2276765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6CB2BE-3180-5E43-6131-2E17891E342C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="10801350"/>
+          <a:ext cx="3505689" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1261467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9CAD79-AEE0-F595-251F-F27DD02B4D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16411575" y="4457700"/>
+          <a:ext cx="3105150" cy="1261467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3543771</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1381304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD75A7-5576-20AA-DB77-11A3C2A7D95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16411575" y="5676900"/>
+          <a:ext cx="3372321" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6730,8 +6868,8 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,7 +7170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -7495,11 +7633,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7513,15 +7651,10 @@
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="59.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="62.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="86.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7547,26 +7680,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="K1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -7589,26 +7704,8 @@
       <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -7631,11 +7728,8 @@
       <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6"/>
-      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -7658,23 +7752,8 @@
       <c r="H4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -7697,11 +7776,8 @@
       <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -7724,23 +7800,8 @@
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -7763,11 +7824,8 @@
         <v>129</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -7792,23 +7850,8 @@
       <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -7831,26 +7874,26 @@
         <v>123</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA44F0-C73B-4A87-B179-4A021F5522AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DF9F7-615E-4ACA-9D3F-124BF774F375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2036F-CDAB-4B79-8F80-3A771F13CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="6" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="5" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="171">
   <si>
     <t>UI</t>
   </si>
@@ -4706,13 +4706,81 @@
       </rPr>
       <t>='19:00:00' (2 PM EST)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">State
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Locked</t>
+    </r>
+  </si>
+  <si>
+    <t>No, status: 'recurring_cooldown' is computed by the service layer, not stored in any table.
+  Here's where each attribute comes from:
+  | API Field                           | Source   | Table.Column
+              |
+  |-------------------------------------|----------|-------------------------------------------------
+  ------------|
+  | status                              | Computed | missionService.computeStatus() looks at multiple
+   tables     |
+  | recurringData.frequency             | Database | rewards.redemption_frequency
+              |
+  | recurringData.cooldownUntil         | Database | mission_progress.cooldown_until ← NEW column
+  from migration |
+  | recurringData.cooldownDaysRemaining | Computed | Service layer calculates from cooldown_until
+              |
+  | recurringData.isInCooldown          | Computed | Service layer: NOW() &lt; cooldown_until
+              |
+  The 17 statuses are all computed, not stored. computeStatus() in missionService.ts checks:
+  - mission_progress.status (active/dormant/completed)
+  - redemptions.status (claimable/claimed/fulfilled/concluded/rejected)
+  - mission_progress.cooldown_until (for recurring_cooldown)
+  - commission_boost_redemptions.boost_status
+  - physical_gift_redemptions.shipped_at
+  - raffle_participations.is_winner
+  - etc.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> status: 'recurring_cooldown'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explanation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Status (D)</t>
+    </r>
+  </si>
+  <si>
+    <t>Can't Participate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4800,6 +4868,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4836,7 +4920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4882,6 +4966,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5491,16 +5584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3276600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1261467</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1366242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5523,7 +5616,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16411575" y="4457700"/>
+          <a:off x="20707350" y="4200525"/>
           <a:ext cx="3105150" cy="1261467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5535,16 +5628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3543771</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3858096</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1381304</xdr:rowOff>
+      <xdr:rowOff>1314629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5567,8 +5660,145 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16411575" y="5676900"/>
+          <a:off x="20707350" y="5610225"/>
           <a:ext cx="3372321" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3667590</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1152643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2BCE0D-61C7-AA75-BE3D-D8814A7DCB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16573500" y="5886450"/>
+          <a:ext cx="3334215" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1091209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C2F65C-24BB-48C2-90F9-0FFC0D248C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16325850" y="4667250"/>
+          <a:ext cx="2247900" cy="519709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2248552</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2D2B8A-EB13-4697-F6F6-67E192219725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="5181600"/>
+          <a:ext cx="2124727" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7633,11 +7863,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7650,11 +7880,11 @@
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="12" width="59.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7680,8 +7910,11 @@
         <v>6</v>
       </c>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -7705,7 +7938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -7729,7 +7962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -7753,7 +7986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -7777,7 +8010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -7801,7 +8034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -7825,7 +8058,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -7851,7 +8084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -7886,14 +8119,82 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA44F0-C73B-4A87-B179-4A021F5522AA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rumi/MissionsRewards.xlsx
+++ b/Rumi/MissionsRewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2036F-CDAB-4B79-8F80-3A771F13CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDC550-A3DE-49A1-9F8B-6A1D1B23C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="5" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="3" xr2:uid="{FBBB1832-C785-4D1E-8B13-354005240D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Raffle Mission Flow" sheetId="12" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="172">
   <si>
     <t>UI</t>
   </si>
@@ -4774,6 +4774,96 @@
   </si>
   <si>
     <t>Can't Participate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROW CREATED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='claimable'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mission_progress_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">set or NULL (for welcome rewards)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redemption_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>='instant'
+claimed_at=NULL (not yet claimed)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5577,6 +5667,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4171950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67162</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1428875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BD8F49-D0AC-A9BC-5C7A-F086E638B82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20183475" y="723900"/>
+          <a:ext cx="3486637" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3971925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1352667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA526EBB-4A8F-5328-9490-408B58A56E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19983450" y="2609850"/>
+          <a:ext cx="3400900" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29042</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1276456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D395EBB-F12B-D9FA-3C38-D1EBCB673EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23945850" y="2609850"/>
+          <a:ext cx="3343742" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3848100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238596</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1619375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710F1B47-6BD7-B4F8-CEC1-9D5B9C2C1618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19859625" y="11325225"/>
+          <a:ext cx="3372321" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5592,8 +5858,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3590925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1366242</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1261467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5724,8 +5990,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1091209</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>519709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5750,6 +6016,50 @@
         <a:xfrm>
           <a:off x="16325850" y="4667250"/>
           <a:ext cx="2247900" cy="519709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3667600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>904987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9936EC6-D280-5E29-3D57-59BC451B6F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16506825" y="1733550"/>
+          <a:ext cx="3400900" cy="800212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7097,9 +7407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89586828-2EC7-4376-8765-C9B5A4503640}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,9 +8175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFE6C49-2D15-4931-B74C-66714C458773}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,7 +8224,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -7938,7 +8248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -7962,7 +8272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -7986,7 +8296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -8010,7 +8320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -8034,7 +8344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -8054,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="H7" s="11"/>
     </row>
